--- a/WCMC.Normalization.LOESS/inst/www/template.xlsx
+++ b/WCMC.Normalization.LOESS/inst/www/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -542,15 +542,15 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -615,7 +615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -745,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -810,1704 +810,1704 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">RAND()</f>
-        <v>0.82433738965132608</v>
+        <v>0.54736143692817407</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:U18" ca="1" si="0">RAND()</f>
-        <v>0.75968226615459888</v>
+        <v>0.32529452535748049</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72083806081658786</v>
+        <v>0.95236764798351492</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66755287904136873</v>
+        <v>0.44641975663111211</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68872241510910293</v>
+        <v>0.20043470347612757</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12807657340132583</v>
+        <v>0.85494144435366526</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42123155311465821</v>
+        <v>0.73722761969283257</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10435251829101433</v>
+        <v>0.46818392406607401</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22760562500321102</v>
+        <v>0.25288495168434078</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83482373124630038</v>
+        <v>0.4231026473391688</v>
       </c>
       <c r="L5" s="1">
         <f ca="1">RAND()</f>
-        <v>0.3718697811420878</v>
+        <v>0.78151671152523494</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0017996647044614E-2</v>
+        <v>0.10609683931898684</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52116462408771413</v>
+        <v>0.42081365697728512</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69706037479494865</v>
+        <v>0.96961585056728727</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13846532859094596</v>
+        <v>0.48113333089020371</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20700053748302594</v>
+        <v>0.99936760316039641</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35077031261444247</v>
+        <v>0.54166189316383184</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41172633293170169</v>
+        <v>0.82938850143611598</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26620621885593809</v>
+        <v>0.27078687768560072</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20540647265405287</v>
+        <v>0.72522151148823144</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:Q24" ca="1" si="1">RAND()</f>
-        <v>0.32047870767445974</v>
+        <v>0.37996229089002143</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88233026099040102</v>
+        <v>0.78107504980378184</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20272629378674656</v>
+        <v>0.89811773269127848</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46075470942694474</v>
+        <v>0.72354115853959</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49984562456882142</v>
+        <v>0.17284096639009205</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87132883294575925</v>
+        <v>0.22119650335500518</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26208421685968597</v>
+        <v>0.21795831318943448</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46042774880536963</v>
+        <v>0.20590584692517822</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82528442469028696</v>
+        <v>0.9120718339937598</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85272266704077193</v>
+        <v>0.46922896650007839</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5386484693203601E-2</v>
+        <v>0.33590775724544286</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38925196064505008</v>
+        <v>0.86535395116898939</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9342624988215058E-2</v>
+        <v>6.6190262762240604E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14862099368572035</v>
+        <v>0.58962910462204232</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95099965313006363</v>
+        <v>0.26988274127887302</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0120252776381E-2</v>
+        <v>0.93835312243357361</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0626041891547948E-2</v>
+        <v>0.67346825337490757</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1972831343407071</v>
+        <v>0.64992511538063025</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23776275709918449</v>
+        <v>0.16719025066193416</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19013802965197346</v>
+        <v>0.96558345770968845</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16162230426198321</v>
+        <v>0.89714910176660012</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6583022547930266E-2</v>
+        <v>0.66966742735109619</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57598607541878488</v>
+        <v>0.25913895548096899</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64351472948537836</v>
+        <v>0.37075019288204092</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67274853692615877</v>
+        <v>0.86722235427053185</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3202676584931835</v>
+        <v>0.63698297682579885</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2232189298785667E-2</v>
+        <v>0.98288891761009245</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80490393356808876</v>
+        <v>0.52214945047562455</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95656237243100639</v>
+        <v>0.51665028268334834</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44171686153892142</v>
+        <v>0.97314991809897244</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38726534047142214</v>
+        <v>0.53892270969153133</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8595975269669649</v>
+        <v>0.48586792134776413</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3817531504012609</v>
+        <v>0.59652679472972969</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37306655461700355</v>
+        <v>0.41230764532238584</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15836275414705314</v>
+        <v>0.56565787722701077</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66725093705716365</v>
+        <v>0.79902456774846764</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4437663937172549</v>
+        <v>0.57595833935347895</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9612353862286156</v>
+        <v>0.5023619718588237</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91169861924933104</v>
+        <v>0.1909666793921051</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25010647364724836</v>
+        <v>0.13674099830698183</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49033114086167973</v>
+        <v>0.31948354870429407</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4934230868765328</v>
+        <v>0.70285631104841362</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71222019531175584</v>
+        <v>5.6271870504212895E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39027069565467942</v>
+        <v>0.85569141922337266</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44962559612390629</v>
+        <v>0.40561604371686566</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70335694678822414</v>
+        <v>0.74777961160878526</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29646487020333279</v>
+        <v>0.40567613456442719</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13888389148004243</v>
+        <v>0.916001486900619</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97769186491039373</v>
+        <v>0.40540745387399346</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73699060199421462</v>
+        <v>0.19979016143774575</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66826555845546309</v>
+        <v>0.31088637163871402</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77749581590687933</v>
+        <v>0.5747805000773617</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87754924446758609</v>
+        <v>0.6820762438548057</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11982729243223234</v>
+        <v>0.35802589389225548</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37036329053314154</v>
+        <v>0.79117700472594754</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33998036999416437</v>
+        <v>0.51329569325034774</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16470982945366497</v>
+        <v>0.28083010934411978</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86240726969957415</v>
+        <v>0.94770840020382074</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66265551093981256</v>
+        <v>0.25182893571259179</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19383182645906993</v>
+        <v>0.70036571815814075</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7665438113026235</v>
+        <v>0.94117234331749844</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0700769077683598E-2</v>
+        <v>0.32077928716645276</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70358616954356989</v>
+        <v>0.58050579105567057</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87965123045586258</v>
+        <v>0.67532797467475059</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80362042523943633</v>
+        <v>0.52410868075266559</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83495610147017885</v>
+        <v>0.74208343952070088</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58064949851182523</v>
+        <v>0.89738263892180037</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84337963882347788</v>
+        <v>9.536087333722898E-2</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72863631066666457</v>
+        <v>0.94773147109373979</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91516514122052461</v>
+        <v>0.65188262993547352</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5956608038237792E-2</v>
+        <v>0.4795690115347836</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28737430679336939</v>
+        <v>0.77486706380235182</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34778791667007647</v>
+        <v>0.14771799420568477</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93576972609521791</v>
+        <v>0.7636200740905138</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69818255062975798</v>
+        <v>0.59470993322423937</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87699785648403761</v>
+        <v>0.24108801947291669</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47376967856793339</v>
+        <v>0.88549471891954912</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44965262791133664</v>
+        <v>0.61511363143335418</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92832549969131428</v>
+        <v>0.48067802008504912</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58278912371029745</v>
+        <v>0.35134589943509598</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61083804487707527</v>
+        <v>0.66843738590565482</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77236263890300638</v>
+        <v>0.31621706256919757</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4221377860032587E-2</v>
+        <v>0.48405465635452416</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26540617589606197</v>
+        <v>0.99036128846294913</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91025070078909254</v>
+        <v>0.94103388910576213</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80976080810263995</v>
+        <v>0.34522552832059994</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83127111962618161</v>
+        <v>0.33566595308738956</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3721694692327594</v>
+        <v>0.90320176322151335</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56474232901038668</v>
+        <v>0.84962027237438875</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75045477355269941</v>
+        <v>0.99123240314008876</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53533836189182016</v>
+        <v>0.82023611729274482</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10622385260103517</v>
+        <v>0.64467370981271599</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15449160967008357</v>
+        <v>0.53442415215502759</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19406879693782808</v>
+        <v>0.40698577576469286</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24375683156247785</v>
+        <v>0.11636868167578385</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92204501638095115</v>
+        <v>0.7536749492908883</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74685522065805066</v>
+        <v>0.99469058906826613</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73100160681978077</v>
+        <v>0.8587195164432595</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1770199897129876</v>
+        <v>0.8356797711230779</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11816352847167699</v>
+        <v>0.93392572306922672</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90323045730736162</v>
+        <v>0.96474532267672508</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14939430090786676</v>
+        <v>0.2674450824165524</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36082401581455315</v>
+        <v>0.65029882624327651</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89649586060057307</v>
+        <v>0.83611439181474312</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7998083278211674</v>
+        <v>0.92513346707775512</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76218130604280121</v>
+        <v>0.64967794469669748</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82884455575451832</v>
+        <v>0.18454156969462165</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86210402525005825</v>
+        <v>0.22730542483979732</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8735449865737275E-2</v>
+        <v>0.27287941041751396</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55534623525067661</v>
+        <v>0.86337227317933929</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78700406930045641</v>
+        <v>0.85200402012733234</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83681565057683693</v>
+        <v>5.2793914623301186E-2</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79547495087486098</v>
+        <v>6.9546447372748177E-2</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63193122708296989</v>
+        <v>0.46591382170760154</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6684002166921883</v>
+        <v>0.22724068286583832</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7104082079079141E-2</v>
+        <v>0.94879350757640346</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79119942715935021</v>
+        <v>0.51390559350248455</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27683352631120905</v>
+        <v>0.79708036138575156</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13008066224706061</v>
+        <v>0.96913760375586877</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56568793072096935</v>
+        <v>0.55624557695655896</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95691112297563463</v>
+        <v>0.88483390517915272</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23530554986545438</v>
+        <v>0.64052124933762633</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42922809141900919</v>
+        <v>0.19269574759242503</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94536604439180494</v>
+        <v>0.69491984325711764</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8723157045172281E-2</v>
+        <v>0.45814643685635348</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64270285095680868</v>
+        <v>0.90792665424316454</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91942515075366293</v>
+        <v>0.9935125704623986</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7650740404776784E-2</v>
+        <v>0.47131826969079482</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83648923143159559</v>
+        <v>0.63750918918113364</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46660529002947737</v>
+        <v>0.4012718845974208</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32104818775842492</v>
+        <v>0.27554854198215495</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16295287860128516</v>
+        <v>0.98644994241036044</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6204693079508337E-2</v>
+        <v>9.8780653731661117E-2</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94900641559336485</v>
+        <v>0.9900827356480425</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45081615151256049</v>
+        <v>0.60683652055215331</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7761102120387626E-2</v>
+        <v>6.5630240526868278E-3</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6877967955513139</v>
+        <v>0.96019647859637303</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71504190923926725</v>
+        <v>0.57750301397261061</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31365590647310304</v>
+        <v>0.76926334252296102</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60358144404708158</v>
+        <v>0.40945311707955601</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83233496392393913</v>
+        <v>0.20504087745903354</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53800523770054043</v>
+        <v>0.67444286803384679</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80675014529153855</v>
+        <v>0.52118655349144016</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69809675463782495</v>
+        <v>0.55736314282737831</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21467613333962676</v>
+        <v>0.96167767426823159</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26597524264498085</v>
+        <v>0.30829039733605423</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53442522815264881</v>
+        <v>0.45892057952501342</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11013404341408828</v>
+        <v>0.48801726390278632</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56922721801561182</v>
+        <v>0.81325242425845468</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57290842683618748</v>
+        <v>6.7252744175274271E-2</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1736988753157036</v>
+        <v>0.14325786926474793</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36598493951731714</v>
+        <v>0.44546232289868848</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22582651368186057</v>
+        <v>0.17084590534891286</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7190727803365844E-2</v>
+        <v>0.94209661275081846</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8328028931183051E-2</v>
+        <v>0.99143801729311609</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20218185376715447</v>
+        <v>0.71391167264582234</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78591620228893899</v>
+        <v>0.86654269599195011</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77496993081132948</v>
+        <v>0.60997754008569449</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65438314039562429</v>
+        <v>4.6144934037182339E-2</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21572784059966643</v>
+        <v>0.33132322342787646</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54449457264252543</v>
+        <v>0.5120321721136869</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88361134621418558</v>
+        <v>0.67559712751672985</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76124425475347879</v>
+        <v>0.66437653114803585</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1789910824570482E-2</v>
+        <v>0.67939528241480351</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46730923193388119</v>
+        <v>0.11827127385255176</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71928035285382586</v>
+        <v>0.8672631187350075</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99161624550646932</v>
+        <v>0.49898854070873155</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31012246630585105</v>
+        <v>0.90307908570354578</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3267456141013989E-3</v>
+        <v>0.28535114548853657</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79899677108558609</v>
+        <v>9.8202427625060595E-2</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65188855564670933</v>
+        <v>0.78576439112567076</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.461501313796017</v>
+        <v>0.55610061656235688</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68049933418246877</v>
+        <v>0.72637835882266177</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88956898081474234</v>
+        <v>3.5465571636382531E-2</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6357737519738782</v>
+        <v>0.68776754621907188</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44784344840110724</v>
+        <v>0.8836376327892056</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31830760183229834</v>
+        <v>0.43871273500715358</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15098833018609192</v>
+        <v>0.58491792867847181</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60076816884402706</v>
+        <v>9.7397712761024824E-2</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38798675078067668</v>
+        <v>0.88398316050781123</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31542707185529617</v>
+        <v>0.77175123732988926</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45037464423168583</v>
+        <v>0.5055162706682752</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39835918646318147</v>
+        <v>0.69800580700884896</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1868016783574649E-2</v>
+        <v>0.86837931004806657</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53288394613310097</v>
+        <v>0.78446460024178266</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37173145893723869</v>
+        <v>0.42115787570972452</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35050329108977363</v>
+        <v>0.20850210379314338</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35395279276440428</v>
+        <v>0.36006866269037086</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4952820242235092</v>
+        <v>0.12098565872519518</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44486730718187206</v>
+        <v>1.0122090026857933E-2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99020293799103543</v>
+        <v>0.12417862126991885</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89085308834687382</v>
+        <v>0.74647117671264773</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46236126593232474</v>
+        <v>0.69967290260318127</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21252590082398004</v>
+        <v>2.5627961456629711E-2</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94031874138888294</v>
+        <v>0.25310419071073542</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36568479035128265</v>
+        <v>0.23754829141004641</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35635197537821106</v>
+        <v>0.85873863186388821</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32363848862875577</v>
+        <v>0.24008027999301829</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36864239703982893</v>
+        <v>0.21621675692994136</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65593841643103379</v>
+        <v>0.88156590632058107</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59989237108389282</v>
+        <v>0.85812218410023766</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63769212051525381</v>
+        <v>0.23694190875722065</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40224691159392389</v>
+        <v>0.81131789525684239</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5570165309914987E-3</v>
+        <v>0.93386388301666678</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53295440768812152</v>
+        <v>0.95885223032685718</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76813707792580899</v>
+        <v>0.2338762754188688</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45594840129846492</v>
+        <v>0.66129567373172882</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8179696930846333</v>
+        <v>0.6636047556961262</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44358693460956122</v>
+        <v>0.84902440251254685</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1885770283693762E-2</v>
+        <v>8.2794878079202938E-2</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76384744840541763</v>
+        <v>5.5459541083016206E-2</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60485182528772818</v>
+        <v>0.49957464626412296</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9002040245657232E-2</v>
+        <v>0.70108520271568897</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37863661911152868</v>
+        <v>0.38060766785509503</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93863369758946535</v>
+        <v>3.2219586255310739E-2</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4682362979282908</v>
+        <v>8.9901667576021249E-2</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40429426701490534</v>
+        <v>0.13763811254596181</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23695510406020037</v>
+        <v>0.64106881977505648</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35870942044444176</v>
+        <v>9.2468266670820309E-2</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0012083543246191E-2</v>
+        <v>0.70129528895027038</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86849661730401817</v>
+        <v>0.66586840428051663</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3439410428953145E-2</v>
+        <v>0.84847082920494721</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7430304543758406E-2</v>
+        <v>0.28487884758328841</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78983353977948323</v>
+        <v>0.90261570104263666</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90785492218784003</v>
+        <v>0.80785245386582483</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98645333999411344</v>
+        <v>0.82474601813750681</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54016683671429355</v>
+        <v>0.44090826695443364</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20510981295855546</v>
+        <v>0.21963199927094867</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16054226764790214</v>
+        <v>0.94327842653438243</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6294602631071147E-2</v>
+        <v>0.26646499545711677</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67761801026748913</v>
+        <v>0.94537275257544162</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5053423409350035E-2</v>
+        <v>0.79833036773725785</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28624786401746638</v>
+        <v>0.69015436575854117</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18950735588131751</v>
+        <v>0.48017919275627874</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81432721205238268</v>
+        <v>6.4532913255787694E-2</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47331390531550166</v>
+        <v>0.92543044879993641</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6648833954029354</v>
+        <v>1.7432328568241395E-2</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60933737099244156</v>
+        <v>0.66381896909537352</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27414694780922932</v>
+        <v>0.90362821539730442</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50473316579058902</v>
+        <v>0.58350964390409366</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31314246813838231</v>
+        <v>7.1854563841586283E-2</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20053397610313139</v>
+        <v>0.96970455725749993</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22819642808039853</v>
+        <v>0.86786779658276925</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45482491057470009</v>
+        <v>0.23232706022724359</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15609557422216591</v>
+        <v>0.74833506980438325</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71174094899602791</v>
+        <v>0.46950273156974309</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43010968217747303</v>
+        <v>0.68280249202229504</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8471853564586771</v>
+        <v>0.67838583933503593</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7297059506320509</v>
+        <v>0.99187001481230175</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30508195604975263</v>
+        <v>0.94331648905922338</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ref="L18:U24" ca="1" si="2">RAND()</f>
-        <v>0.24083285665440413</v>
+        <v>0.57333022568628855</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4773894115025229</v>
+        <v>0.5424299242417624</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8099596744718125</v>
+        <v>0.38357971714232753</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80754280717306004</v>
+        <v>0.14572673396527591</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90342811487189556</v>
+        <v>0.83450694701947037</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73590547773288939</v>
+        <v>0.89169361728944996</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66436776906945505</v>
+        <v>0.6493064916641843</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.421267452920421</v>
+        <v>0.41628696528656106</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6831416755317479E-2</v>
+        <v>0.70124709745062752</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69576310912535166</v>
+        <v>0.89261830637939177</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1754864430597407</v>
+        <v>8.5233928877038512E-2</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25286637747604479</v>
+        <v>0.23758224285898166</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30426487118710166</v>
+        <v>8.0585502016444099E-2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10267525682106093</v>
+        <v>0.71149790640714805</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65131388123906764</v>
+        <v>0.40644442545527337</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77093022654726562</v>
+        <v>0.81133958851664201</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7553325002159004E-2</v>
+        <v>0.59671499748343093</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92520929154887566</v>
+        <v>0.10141874079632696</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21872898339393609</v>
+        <v>0.43441526391252638</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93928183351700922</v>
+        <v>0.9812904715730989</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41572594808359187</v>
+        <v>0.52260806506527335</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65482966084234639</v>
+        <v>2.5726585469935115E-3</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15624942918663276</v>
+        <v>0.24348073929291703</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.536983359457202E-2</v>
+        <v>0.22146033519843311</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95136412381766267</v>
+        <v>0.42537724472124383</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60346154945602848</v>
+        <v>0.40423335406058813</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71474308750099269</v>
+        <v>0.97782344030590396</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38578896712937405</v>
+        <v>6.1123980457409299E-3</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35432776337297334</v>
+        <v>0.64333011408638852</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64761491610241595</v>
+        <v>0.61531411819451709</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22688468209454582</v>
+        <v>0.38739752439301667</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69851468351695412</v>
+        <v>0.17231260178512109</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87286161098332959</v>
+        <v>0.36976115036625479</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84169732808457087</v>
+        <v>0.67174173907559243</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72829674002427469</v>
+        <v>0.87771042726309845</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17484118924895919</v>
+        <v>0.43220831627245837</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41640282725239464</v>
+        <v>0.76147620967454899</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7553446162041926E-2</v>
+        <v>0.99283909330059084</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80079272490918652</v>
+        <v>0.12752663652736673</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82721838920177215</v>
+        <v>0.57057178247720919</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.796656739627946E-2</v>
+        <v>0.32672654567923043</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68883115788674931</v>
+        <v>0.84873036460721296</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92763360326938005</v>
+        <v>8.5101716526861493E-2</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54353438373196805</v>
+        <v>0.63537168444837078</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16310829545622385</v>
+        <v>0.2237974210560546</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28129053016302774</v>
+        <v>0.33191696849053409</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78055802847766387</v>
+        <v>0.903192347677504</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7786398362558535E-2</v>
+        <v>0.86904124735983601</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80008246549369344</v>
+        <v>0.13363615065678214</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34564066342020738</v>
+        <v>0.21143700024850931</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1956836205868091</v>
+        <v>0.15723351046383527</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83380964609075714</v>
+        <v>0.50665066966918249</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40022121208282091</v>
+        <v>0.89067117173849253</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75393108773170048</v>
+        <v>0.99720730212879793</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56385378762722749</v>
+        <v>0.82624040378709718</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66620689930057519</v>
+        <v>0.79268661829471521</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67391922070042554</v>
+        <v>0.54985112199123909</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13501840714276558</v>
+        <v>0.71670241792814993</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11634502887070586</v>
+        <v>0.10303377274979442</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68463882283885247</v>
+        <v>0.56218848987558934</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81967079914891006</v>
+        <v>0.61679225195285203</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21466791659720652</v>
+        <v>0.2773701299841923</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73464482646576013</v>
+        <v>0.53247934152815568</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60465855320339823</v>
+        <v>0.19273720559111396</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40473515585901032</v>
+        <v>5.6529069076092342E-2</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8183220426881791</v>
+        <v>0.51373391644320687</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5706500059203421E-2</v>
+        <v>0.25888904839851568</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79421676949242703</v>
+        <v>0.74761658936049602</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50844054600192268</v>
+        <v>0.42081547830115629</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72608561819403883</v>
+        <v>0.43042918648154027</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28303017627785154</v>
+        <v>0.2823486886483958</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86211287891533073</v>
+        <v>0.88925938994801179</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69417914368085432</v>
+        <v>0.31849688606719129</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15665143539714432</v>
+        <v>0.37011294486113899</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.168091262536866E-2</v>
+        <v>0.59528899914280364</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12042039332109378</v>
+        <v>0.20781844321481779</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8785240580277075</v>
+        <v>0.63222067177227714</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23002959155010583</v>
+        <v>0.31100041761260366</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19768531490969687</v>
+        <v>7.0251114373221624E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25827186943773206</v>
+        <v>0.82487922914924883</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8481864435583333E-2</v>
+        <v>0.64438855461730171</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85984937326852551</v>
+        <v>0.10581721808966604</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89530905314173159</v>
+        <v>0.44215370401541998</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58105826353733447</v>
+        <v>5.0192617297573072E-2</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.239704398995783</v>
+        <v>0.89376815565314005</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52146347766507495</v>
+        <v>0.66034139777952094</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14404860786623885</v>
+        <v>0.56617422827191832</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75051329179499504</v>
+        <v>0.36126409910245172</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4172206576491493E-2</v>
+        <v>0.73538441716944269</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4544361794067806</v>
+        <v>0.59167629550003531</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15092960794755794</v>
+        <v>0.59869374229664762</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79096410604232525</v>
+        <v>0.55197707654890071</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32674195425649932</v>
+        <v>0.12185775278317168</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82611811672552626</v>
+        <v>0.62318429969379352</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20698515705305864</v>
+        <v>1.3925030922597892E-2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29080570507275627</v>
+        <v>0.813688485513264</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89577528901667158</v>
+        <v>9.0117804679202163E-2</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79410095734743269</v>
+        <v>0.91366393533409118</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68413163876756</v>
+        <v>0.48177292963254648</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57776600827301827</v>
+        <v>0.25299856451663194</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53232765922878822</v>
+        <v>0.54242756842923101</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73204377913922614</v>
+        <v>0.54185714084018322</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.744376223539574</v>
+        <v>5.8771414215548212E-3</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45812224013532865</v>
+        <v>0.6009515998892293</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10193955252302167</v>
+        <v>0.70451214606983481</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95121386520547102</v>
+        <v>0.91211333759448487</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96170701821631566</v>
+        <v>0.56474339932877082</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61823525092648157</v>
+        <v>0.40488462440831752</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95048219211285345</v>
+        <v>0.81236613046945749</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66964232565828496</v>
+        <v>0.97634558214513456</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10048564844951058</v>
+        <v>0.56689600159317799</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82633514116297102</v>
+        <v>0.78578431858151676</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.111031016759346E-2</v>
+        <v>0.62861538982364573</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21300342765604896</v>
+        <v>0.87971351949845655</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.801346103776434</v>
+        <v>0.54752447794014936</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44103081250760179</v>
+        <v>0.81214497315769396</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2259258021621352</v>
+        <v>0.80069239845734397</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40554208969636141</v>
+        <v>0.43936669089293279</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33538206220769529</v>
+        <v>0.62490402015508673</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93634859983708019</v>
+        <v>0.58444712734318749</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2163514876227186E-2</v>
+        <v>0.53020247429750267</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79290998280594205</v>
+        <v>0.94750692654633417</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98386393535803696</v>
+        <v>0.50139497961960666</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81781356577132702</v>
+        <v>0.20123857816052504</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20196297043369127</v>
+        <v>0.51407712649846282</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15795671230088737</v>
+        <v>0.77276456425407691</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37363212509026522</v>
+        <v>0.27392413476344735</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51782477223034684</v>
+        <v>0.19208682408565281</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65571209954882526</v>
+        <v>0.58112173154387203</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94203463464432302</v>
+        <v>0.22839105018659267</v>
       </c>
     </row>
   </sheetData>
